--- a/bogadh_risk_assement.xlsx
+++ b/bogadh_risk_assement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\Working Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42945B15-443D-4A4B-ACD5-A75DE1F2AC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C5E11-0345-461F-8C89-C19CCFE4A085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E38E990C-1187-46CA-9677-30CF9D9E7623}"/>
   </bookViews>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A45EE0-C37D-4306-9E04-C2D257F62728}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="81.6640625" customWidth="1"/>
+    <col min="8" max="8" width="95" customWidth="1"/>
     <col min="9" max="9" width="129.44140625" customWidth="1"/>
     <col min="10" max="10" width="23.5546875" customWidth="1"/>
     <col min="11" max="11" width="20.77734375" customWidth="1"/>

--- a/bogadh_risk_assement.xlsx
+++ b/bogadh_risk_assement.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Adam\Documents\Working Folder\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{480C5E11-0345-461F-8C89-C19CCFE4A085}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42945B15-443D-4A4B-ACD5-A75DE1F2AC3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{E38E990C-1187-46CA-9677-30CF9D9E7623}"/>
   </bookViews>
@@ -607,8 +607,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8A45EE0-C37D-4306-9E04-C2D257F62728}">
   <dimension ref="A1:Q9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="65" zoomScaleNormal="65" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -620,7 +620,7 @@
     <col min="5" max="5" width="23.88671875" customWidth="1"/>
     <col min="6" max="6" width="29" customWidth="1"/>
     <col min="7" max="7" width="18.44140625" customWidth="1"/>
-    <col min="8" max="8" width="95" customWidth="1"/>
+    <col min="8" max="8" width="81.6640625" customWidth="1"/>
     <col min="9" max="9" width="129.44140625" customWidth="1"/>
     <col min="10" max="10" width="23.5546875" customWidth="1"/>
     <col min="11" max="11" width="20.77734375" customWidth="1"/>
